--- a/Improve/Matriz GUT/Matriz GUT - TRE.xlsx
+++ b/Improve/Matriz GUT/Matriz GUT - TRE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\preto\OneDrive\Documentos\Puc_Lean2016\Improve\Matriz GUT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e047697\Documents\Puc_Lean_2016\Improve\Matriz GUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="F1CD854F28552A0584EF8B16CF21A8EA153CE819" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{1E260D97-18C7-4F87-AFC4-CD6E9BF5D0D2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz GUT" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="Gravidade" localSheetId="0">'Matriz GUT'!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -146,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -417,6 +416,15 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -430,15 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,36 +777,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="10" max="38" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" customWidth="1"/>
+    <col min="10" max="38" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -840,16 +839,16 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -882,12 +881,12 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
@@ -934,12 +933,12 @@
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
     </row>
-    <row r="4" spans="1:38" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="10">
         <v>3</v>
       </c>
@@ -958,12 +957,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="10">
         <v>5</v>
       </c>
@@ -982,17 +981,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="12">
         <v>4</v>
@@ -1006,12 +1005,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="10">
         <v>5</v>
       </c>
@@ -1030,36 +1029,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="12">
         <v>2</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="10">
         <v>2</v>
       </c>
@@ -1076,12 +1075,12 @@
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="10">
         <v>4</v>
       </c>
@@ -1098,36 +1097,36 @@
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="12">
         <v>3</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="10">
         <v>2</v>
       </c>
@@ -1146,10 +1145,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
@@ -1162,10 +1161,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
@@ -1178,10 +1177,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
@@ -1194,10 +1193,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
@@ -1210,10 +1209,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -1224,10 +1223,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
@@ -1238,10 +1237,10 @@
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
@@ -1254,10 +1253,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
       <c r="F20" s="12"/>
@@ -1270,10 +1269,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12"/>
@@ -1286,10 +1285,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
@@ -1302,10 +1301,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
@@ -1318,10 +1317,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
@@ -1334,10 +1333,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
@@ -1348,10 +1347,10 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
@@ -1362,10 +1361,10 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
       <c r="F27" s="12"/>
@@ -1376,10 +1375,10 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
@@ -1390,10 +1389,10 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
@@ -1404,10 +1403,10 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
@@ -1418,10 +1417,10 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
@@ -1432,10 +1431,10 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
@@ -1475,7 +1474,7 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
     </row>
-    <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1515,7 +1514,7 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
     </row>
-    <row r="34" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1555,7 +1554,7 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
     </row>
-    <row r="35" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1595,7 +1594,7 @@
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
     </row>
-    <row r="36" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1635,7 +1634,7 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
     </row>
-    <row r="37" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1675,7 +1674,7 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
     </row>
-    <row r="38" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1715,7 +1714,7 @@
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
     </row>
-    <row r="39" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1755,7 +1754,7 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
     </row>
-    <row r="40" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1795,7 +1794,7 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
     </row>
-    <row r="41" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1835,7 +1834,7 @@
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
     </row>
-    <row r="42" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1875,7 +1874,7 @@
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
     </row>
-    <row r="43" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1915,7 +1914,7 @@
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
     </row>
-    <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1955,7 +1954,7 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
     </row>
-    <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1995,7 +1994,7 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
     </row>
-    <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2035,7 +2034,7 @@
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
     </row>
-    <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2075,7 +2074,7 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
     </row>
-    <row r="48" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2115,7 +2114,7 @@
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
     </row>
-    <row r="49" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2155,7 +2154,7 @@
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
     </row>
-    <row r="50" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2195,7 +2194,7 @@
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
     </row>
-    <row r="51" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2235,7 +2234,7 @@
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
     </row>
-    <row r="52" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2275,7 +2274,7 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
     </row>
-    <row r="53" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2315,7 +2314,7 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
     </row>
-    <row r="54" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2355,7 +2354,7 @@
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
     </row>
-    <row r="55" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2395,7 +2394,7 @@
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
     </row>
-    <row r="56" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2435,7 +2434,7 @@
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
     </row>
-    <row r="57" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2475,7 +2474,7 @@
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
     </row>
-    <row r="58" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2515,7 +2514,7 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
     </row>
-    <row r="59" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2555,7 +2554,7 @@
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
     </row>
-    <row r="60" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2595,7 +2594,7 @@
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
     </row>
-    <row r="61" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2635,7 +2634,7 @@
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
     </row>
-    <row r="62" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2675,7 +2674,7 @@
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
     </row>
-    <row r="63" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2715,7 +2714,7 @@
       <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
     </row>
-    <row r="64" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2755,7 +2754,7 @@
       <c r="AK64" s="2"/>
       <c r="AL64" s="2"/>
     </row>
-    <row r="65" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2795,7 +2794,7 @@
       <c r="AK65" s="2"/>
       <c r="AL65" s="2"/>
     </row>
-    <row r="66" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2835,7 +2834,7 @@
       <c r="AK66" s="2"/>
       <c r="AL66" s="2"/>
     </row>
-    <row r="67" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2875,7 +2874,7 @@
       <c r="AK67" s="2"/>
       <c r="AL67" s="2"/>
     </row>
-    <row r="68" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2915,7 +2914,7 @@
       <c r="AK68" s="2"/>
       <c r="AL68" s="2"/>
     </row>
-    <row r="69" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2955,7 +2954,7 @@
       <c r="AK69" s="2"/>
       <c r="AL69" s="2"/>
     </row>
-    <row r="70" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2995,7 +2994,7 @@
       <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
     </row>
-    <row r="71" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3035,7 +3034,7 @@
       <c r="AK71" s="2"/>
       <c r="AL71" s="2"/>
     </row>
-    <row r="72" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3075,7 +3074,7 @@
       <c r="AK72" s="2"/>
       <c r="AL72" s="2"/>
     </row>
-    <row r="73" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3115,7 +3114,7 @@
       <c r="AK73" s="2"/>
       <c r="AL73" s="2"/>
     </row>
-    <row r="74" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3155,7 +3154,7 @@
       <c r="AK74" s="2"/>
       <c r="AL74" s="2"/>
     </row>
-    <row r="75" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3195,7 +3194,7 @@
       <c r="AK75" s="2"/>
       <c r="AL75" s="2"/>
     </row>
-    <row r="76" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3235,7 +3234,7 @@
       <c r="AK76" s="2"/>
       <c r="AL76" s="2"/>
     </row>
-    <row r="77" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3275,7 +3274,7 @@
       <c r="AK77" s="2"/>
       <c r="AL77" s="2"/>
     </row>
-    <row r="78" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3315,7 +3314,7 @@
       <c r="AK78" s="2"/>
       <c r="AL78" s="2"/>
     </row>
-    <row r="79" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3355,7 +3354,7 @@
       <c r="AK79" s="2"/>
       <c r="AL79" s="2"/>
     </row>
-    <row r="80" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3395,7 +3394,7 @@
       <c r="AK80" s="2"/>
       <c r="AL80" s="2"/>
     </row>
-    <row r="81" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3435,7 +3434,7 @@
       <c r="AK81" s="2"/>
       <c r="AL81" s="2"/>
     </row>
-    <row r="82" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3475,7 +3474,7 @@
       <c r="AK82" s="2"/>
       <c r="AL82" s="2"/>
     </row>
-    <row r="83" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3515,7 +3514,7 @@
       <c r="AK83" s="2"/>
       <c r="AL83" s="2"/>
     </row>
-    <row r="84" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3555,7 +3554,7 @@
       <c r="AK84" s="2"/>
       <c r="AL84" s="2"/>
     </row>
-    <row r="85" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3595,7 +3594,7 @@
       <c r="AK85" s="2"/>
       <c r="AL85" s="2"/>
     </row>
-    <row r="86" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3635,7 +3634,7 @@
       <c r="AK86" s="2"/>
       <c r="AL86" s="2"/>
     </row>
-    <row r="87" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3675,7 +3674,7 @@
       <c r="AK87" s="2"/>
       <c r="AL87" s="2"/>
     </row>
-    <row r="88" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3715,7 +3714,7 @@
       <c r="AK88" s="2"/>
       <c r="AL88" s="2"/>
     </row>
-    <row r="89" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3755,7 +3754,7 @@
       <c r="AK89" s="2"/>
       <c r="AL89" s="2"/>
     </row>
-    <row r="90" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3795,7 +3794,7 @@
       <c r="AK90" s="2"/>
       <c r="AL90" s="2"/>
     </row>
-    <row r="91" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3835,7 +3834,7 @@
       <c r="AK91" s="2"/>
       <c r="AL91" s="2"/>
     </row>
-    <row r="92" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3875,7 +3874,7 @@
       <c r="AK92" s="2"/>
       <c r="AL92" s="2"/>
     </row>
-    <row r="93" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3915,7 +3914,7 @@
       <c r="AK93" s="2"/>
       <c r="AL93" s="2"/>
     </row>
-    <row r="94" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3955,7 +3954,7 @@
       <c r="AK94" s="2"/>
       <c r="AL94" s="2"/>
     </row>
-    <row r="95" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3995,7 +3994,7 @@
       <c r="AK95" s="2"/>
       <c r="AL95" s="2"/>
     </row>
-    <row r="96" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4035,7 +4034,7 @@
       <c r="AK96" s="2"/>
       <c r="AL96" s="2"/>
     </row>
-    <row r="97" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4075,7 +4074,7 @@
       <c r="AK97" s="2"/>
       <c r="AL97" s="2"/>
     </row>
-    <row r="98" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4115,7 +4114,7 @@
       <c r="AK98" s="2"/>
       <c r="AL98" s="2"/>
     </row>
-    <row r="99" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4155,7 +4154,7 @@
       <c r="AK99" s="2"/>
       <c r="AL99" s="2"/>
     </row>
-    <row r="100" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4195,7 +4194,7 @@
       <c r="AK100" s="2"/>
       <c r="AL100" s="2"/>
     </row>
-    <row r="101" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4235,7 +4234,7 @@
       <c r="AK101" s="2"/>
       <c r="AL101" s="2"/>
     </row>
-    <row r="102" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4275,7 +4274,7 @@
       <c r="AK102" s="2"/>
       <c r="AL102" s="2"/>
     </row>
-    <row r="103" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4315,7 +4314,7 @@
       <c r="AK103" s="2"/>
       <c r="AL103" s="2"/>
     </row>
-    <row r="104" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4355,7 +4354,7 @@
       <c r="AK104" s="2"/>
       <c r="AL104" s="2"/>
     </row>
-    <row r="105" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4395,7 +4394,7 @@
       <c r="AK105" s="2"/>
       <c r="AL105" s="2"/>
     </row>
-    <row r="106" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4435,7 +4434,7 @@
       <c r="AK106" s="2"/>
       <c r="AL106" s="2"/>
     </row>
-    <row r="107" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4475,7 +4474,7 @@
       <c r="AK107" s="2"/>
       <c r="AL107" s="2"/>
     </row>
-    <row r="108" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4515,7 +4514,7 @@
       <c r="AK108" s="2"/>
       <c r="AL108" s="2"/>
     </row>
-    <row r="109" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4555,7 +4554,7 @@
       <c r="AK109" s="2"/>
       <c r="AL109" s="2"/>
     </row>
-    <row r="110" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4595,7 +4594,7 @@
       <c r="AK110" s="2"/>
       <c r="AL110" s="2"/>
     </row>
-    <row r="111" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4635,7 +4634,7 @@
       <c r="AK111" s="2"/>
       <c r="AL111" s="2"/>
     </row>
-    <row r="112" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4675,7 +4674,7 @@
       <c r="AK112" s="2"/>
       <c r="AL112" s="2"/>
     </row>
-    <row r="113" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4715,7 +4714,7 @@
       <c r="AK113" s="2"/>
       <c r="AL113" s="2"/>
     </row>
-    <row r="114" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4755,7 +4754,7 @@
       <c r="AK114" s="2"/>
       <c r="AL114" s="2"/>
     </row>
-    <row r="115" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4795,7 +4794,7 @@
       <c r="AK115" s="2"/>
       <c r="AL115" s="2"/>
     </row>
-    <row r="116" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4835,7 +4834,7 @@
       <c r="AK116" s="2"/>
       <c r="AL116" s="2"/>
     </row>
-    <row r="117" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4875,7 +4874,7 @@
       <c r="AK117" s="2"/>
       <c r="AL117" s="2"/>
     </row>
-    <row r="118" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4915,7 +4914,7 @@
       <c r="AK118" s="2"/>
       <c r="AL118" s="2"/>
     </row>
-    <row r="119" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4955,7 +4954,7 @@
       <c r="AK119" s="2"/>
       <c r="AL119" s="2"/>
     </row>
-    <row r="120" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4995,7 +4994,7 @@
       <c r="AK120" s="2"/>
       <c r="AL120" s="2"/>
     </row>
-    <row r="121" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5035,7 +5034,7 @@
       <c r="AK121" s="2"/>
       <c r="AL121" s="2"/>
     </row>
-    <row r="122" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5075,7 +5074,7 @@
       <c r="AK122" s="2"/>
       <c r="AL122" s="2"/>
     </row>
-    <row r="123" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5115,7 +5114,7 @@
       <c r="AK123" s="2"/>
       <c r="AL123" s="2"/>
     </row>
-    <row r="124" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5155,7 +5154,7 @@
       <c r="AK124" s="2"/>
       <c r="AL124" s="2"/>
     </row>
-    <row r="125" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5195,7 +5194,7 @@
       <c r="AK125" s="2"/>
       <c r="AL125" s="2"/>
     </row>
-    <row r="126" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5235,7 +5234,7 @@
       <c r="AK126" s="2"/>
       <c r="AL126" s="2"/>
     </row>
-    <row r="127" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5275,7 +5274,7 @@
       <c r="AK127" s="2"/>
       <c r="AL127" s="2"/>
     </row>
-    <row r="128" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5315,7 +5314,7 @@
       <c r="AK128" s="2"/>
       <c r="AL128" s="2"/>
     </row>
-    <row r="129" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5355,7 +5354,7 @@
       <c r="AK129" s="2"/>
       <c r="AL129" s="2"/>
     </row>
-    <row r="130" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5395,7 +5394,7 @@
       <c r="AK130" s="2"/>
       <c r="AL130" s="2"/>
     </row>
-    <row r="131" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5435,7 +5434,7 @@
       <c r="AK131" s="2"/>
       <c r="AL131" s="2"/>
     </row>
-    <row r="132" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5475,7 +5474,7 @@
       <c r="AK132" s="2"/>
       <c r="AL132" s="2"/>
     </row>
-    <row r="133" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5515,7 +5514,7 @@
       <c r="AK133" s="2"/>
       <c r="AL133" s="2"/>
     </row>
-    <row r="134" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5555,7 +5554,7 @@
       <c r="AK134" s="2"/>
       <c r="AL134" s="2"/>
     </row>
-    <row r="135" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5595,7 +5594,7 @@
       <c r="AK135" s="2"/>
       <c r="AL135" s="2"/>
     </row>
-    <row r="136" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5635,7 +5634,7 @@
       <c r="AK136" s="2"/>
       <c r="AL136" s="2"/>
     </row>
-    <row r="137" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5675,7 +5674,7 @@
       <c r="AK137" s="2"/>
       <c r="AL137" s="2"/>
     </row>
-    <row r="138" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5715,7 +5714,7 @@
       <c r="AK138" s="2"/>
       <c r="AL138" s="2"/>
     </row>
-    <row r="139" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5755,7 +5754,7 @@
       <c r="AK139" s="2"/>
       <c r="AL139" s="2"/>
     </row>
-    <row r="140" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5795,7 +5794,7 @@
       <c r="AK140" s="2"/>
       <c r="AL140" s="2"/>
     </row>
-    <row r="141" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5835,7 +5834,7 @@
       <c r="AK141" s="2"/>
       <c r="AL141" s="2"/>
     </row>
-    <row r="142" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5875,7 +5874,7 @@
       <c r="AK142" s="2"/>
       <c r="AL142" s="2"/>
     </row>
-    <row r="143" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5915,7 +5914,7 @@
       <c r="AK143" s="2"/>
       <c r="AL143" s="2"/>
     </row>
-    <row r="144" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5955,7 +5954,7 @@
       <c r="AK144" s="2"/>
       <c r="AL144" s="2"/>
     </row>
-    <row r="145" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5995,7 +5994,7 @@
       <c r="AK145" s="2"/>
       <c r="AL145" s="2"/>
     </row>
-    <row r="146" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6035,7 +6034,7 @@
       <c r="AK146" s="2"/>
       <c r="AL146" s="2"/>
     </row>
-    <row r="147" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6075,7 +6074,7 @@
       <c r="AK147" s="2"/>
       <c r="AL147" s="2"/>
     </row>
-    <row r="148" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6115,7 +6114,7 @@
       <c r="AK148" s="2"/>
       <c r="AL148" s="2"/>
     </row>
-    <row r="149" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6155,7 +6154,7 @@
       <c r="AK149" s="2"/>
       <c r="AL149" s="2"/>
     </row>
-    <row r="150" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6195,7 +6194,7 @@
       <c r="AK150" s="2"/>
       <c r="AL150" s="2"/>
     </row>
-    <row r="151" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6235,7 +6234,7 @@
       <c r="AK151" s="2"/>
       <c r="AL151" s="2"/>
     </row>
-    <row r="152" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6275,7 +6274,7 @@
       <c r="AK152" s="2"/>
       <c r="AL152" s="2"/>
     </row>
-    <row r="153" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6315,7 +6314,7 @@
       <c r="AK153" s="2"/>
       <c r="AL153" s="2"/>
     </row>
-    <row r="154" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6355,7 +6354,7 @@
       <c r="AK154" s="2"/>
       <c r="AL154" s="2"/>
     </row>
-    <row r="155" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6395,7 +6394,7 @@
       <c r="AK155" s="2"/>
       <c r="AL155" s="2"/>
     </row>
-    <row r="156" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6435,7 +6434,7 @@
       <c r="AK156" s="2"/>
       <c r="AL156" s="2"/>
     </row>
-    <row r="157" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6475,7 +6474,7 @@
       <c r="AK157" s="2"/>
       <c r="AL157" s="2"/>
     </row>
-    <row r="158" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6515,7 +6514,7 @@
       <c r="AK158" s="2"/>
       <c r="AL158" s="2"/>
     </row>
-    <row r="159" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6555,7 +6554,7 @@
       <c r="AK159" s="2"/>
       <c r="AL159" s="2"/>
     </row>
-    <row r="160" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6595,7 +6594,7 @@
       <c r="AK160" s="2"/>
       <c r="AL160" s="2"/>
     </row>
-    <row r="161" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6635,7 +6634,7 @@
       <c r="AK161" s="2"/>
       <c r="AL161" s="2"/>
     </row>
-    <row r="162" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6675,7 +6674,7 @@
       <c r="AK162" s="2"/>
       <c r="AL162" s="2"/>
     </row>
-    <row r="163" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6715,7 +6714,7 @@
       <c r="AK163" s="2"/>
       <c r="AL163" s="2"/>
     </row>
-    <row r="164" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6755,7 +6754,7 @@
       <c r="AK164" s="2"/>
       <c r="AL164" s="2"/>
     </row>
-    <row r="165" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6795,7 +6794,7 @@
       <c r="AK165" s="2"/>
       <c r="AL165" s="2"/>
     </row>
-    <row r="166" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6835,7 +6834,7 @@
       <c r="AK166" s="2"/>
       <c r="AL166" s="2"/>
     </row>
-    <row r="167" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6875,7 +6874,7 @@
       <c r="AK167" s="2"/>
       <c r="AL167" s="2"/>
     </row>
-    <row r="168" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6915,7 +6914,7 @@
       <c r="AK168" s="2"/>
       <c r="AL168" s="2"/>
     </row>
-    <row r="169" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6955,7 +6954,7 @@
       <c r="AK169" s="2"/>
       <c r="AL169" s="2"/>
     </row>
-    <row r="170" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6995,7 +6994,7 @@
       <c r="AK170" s="2"/>
       <c r="AL170" s="2"/>
     </row>
-    <row r="171" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7035,7 +7034,7 @@
       <c r="AK171" s="2"/>
       <c r="AL171" s="2"/>
     </row>
-    <row r="172" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7075,7 +7074,7 @@
       <c r="AK172" s="2"/>
       <c r="AL172" s="2"/>
     </row>
-    <row r="173" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7115,7 +7114,7 @@
       <c r="AK173" s="2"/>
       <c r="AL173" s="2"/>
     </row>
-    <row r="174" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7155,7 +7154,7 @@
       <c r="AK174" s="2"/>
       <c r="AL174" s="2"/>
     </row>
-    <row r="175" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7195,7 +7194,7 @@
       <c r="AK175" s="2"/>
       <c r="AL175" s="2"/>
     </row>
-    <row r="176" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7235,7 +7234,7 @@
       <c r="AK176" s="2"/>
       <c r="AL176" s="2"/>
     </row>
-    <row r="177" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7275,7 +7274,7 @@
       <c r="AK177" s="2"/>
       <c r="AL177" s="2"/>
     </row>
-    <row r="178" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7315,7 +7314,7 @@
       <c r="AK178" s="2"/>
       <c r="AL178" s="2"/>
     </row>
-    <row r="179" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7355,7 +7354,7 @@
       <c r="AK179" s="2"/>
       <c r="AL179" s="2"/>
     </row>
-    <row r="180" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7395,7 +7394,7 @@
       <c r="AK180" s="2"/>
       <c r="AL180" s="2"/>
     </row>
-    <row r="181" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7435,7 +7434,7 @@
       <c r="AK181" s="2"/>
       <c r="AL181" s="2"/>
     </row>
-    <row r="182" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7475,7 +7474,7 @@
       <c r="AK182" s="2"/>
       <c r="AL182" s="2"/>
     </row>
-    <row r="183" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7515,7 +7514,7 @@
       <c r="AK183" s="2"/>
       <c r="AL183" s="2"/>
     </row>
-    <row r="184" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7555,7 +7554,7 @@
       <c r="AK184" s="2"/>
       <c r="AL184" s="2"/>
     </row>
-    <row r="185" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7595,7 +7594,7 @@
       <c r="AK185" s="2"/>
       <c r="AL185" s="2"/>
     </row>
-    <row r="186" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7635,7 +7634,7 @@
       <c r="AK186" s="2"/>
       <c r="AL186" s="2"/>
     </row>
-    <row r="187" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7675,7 +7674,7 @@
       <c r="AK187" s="2"/>
       <c r="AL187" s="2"/>
     </row>
-    <row r="188" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7715,7 +7714,7 @@
       <c r="AK188" s="2"/>
       <c r="AL188" s="2"/>
     </row>
-    <row r="189" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7755,7 +7754,7 @@
       <c r="AK189" s="2"/>
       <c r="AL189" s="2"/>
     </row>
-    <row r="190" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7795,7 +7794,7 @@
       <c r="AK190" s="2"/>
       <c r="AL190" s="2"/>
     </row>
-    <row r="191" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7835,7 +7834,7 @@
       <c r="AK191" s="2"/>
       <c r="AL191" s="2"/>
     </row>
-    <row r="192" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7875,7 +7874,7 @@
       <c r="AK192" s="2"/>
       <c r="AL192" s="2"/>
     </row>
-    <row r="193" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7915,7 +7914,7 @@
       <c r="AK193" s="2"/>
       <c r="AL193" s="2"/>
     </row>
-    <row r="194" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7955,7 +7954,7 @@
       <c r="AK194" s="2"/>
       <c r="AL194" s="2"/>
     </row>
-    <row r="195" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7995,7 +7994,7 @@
       <c r="AK195" s="2"/>
       <c r="AL195" s="2"/>
     </row>
-    <row r="196" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -8035,7 +8034,7 @@
       <c r="AK196" s="2"/>
       <c r="AL196" s="2"/>
     </row>
-    <row r="197" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -8075,7 +8074,7 @@
       <c r="AK197" s="2"/>
       <c r="AL197" s="2"/>
     </row>
-    <row r="198" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -8115,7 +8114,7 @@
       <c r="AK198" s="2"/>
       <c r="AL198" s="2"/>
     </row>
-    <row r="199" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -8155,7 +8154,7 @@
       <c r="AK199" s="2"/>
       <c r="AL199" s="2"/>
     </row>
-    <row r="200" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -8195,7 +8194,7 @@
       <c r="AK200" s="2"/>
       <c r="AL200" s="2"/>
     </row>
-    <row r="201" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -8235,7 +8234,7 @@
       <c r="AK201" s="2"/>
       <c r="AL201" s="2"/>
     </row>
-    <row r="202" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -8275,7 +8274,7 @@
       <c r="AK202" s="2"/>
       <c r="AL202" s="2"/>
     </row>
-    <row r="203" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -8315,7 +8314,7 @@
       <c r="AK203" s="2"/>
       <c r="AL203" s="2"/>
     </row>
-    <row r="204" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -8355,7 +8354,7 @@
       <c r="AK204" s="2"/>
       <c r="AL204" s="2"/>
     </row>
-    <row r="205" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -8395,7 +8394,7 @@
       <c r="AK205" s="2"/>
       <c r="AL205" s="2"/>
     </row>
-    <row r="206" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -8435,7 +8434,7 @@
       <c r="AK206" s="2"/>
       <c r="AL206" s="2"/>
     </row>
-    <row r="207" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -8475,7 +8474,7 @@
       <c r="AK207" s="2"/>
       <c r="AL207" s="2"/>
     </row>
-    <row r="208" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -8515,7 +8514,7 @@
       <c r="AK208" s="2"/>
       <c r="AL208" s="2"/>
     </row>
-    <row r="209" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -8555,7 +8554,7 @@
       <c r="AK209" s="2"/>
       <c r="AL209" s="2"/>
     </row>
-    <row r="210" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -8595,7 +8594,7 @@
       <c r="AK210" s="2"/>
       <c r="AL210" s="2"/>
     </row>
-    <row r="211" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -8635,7 +8634,7 @@
       <c r="AK211" s="2"/>
       <c r="AL211" s="2"/>
     </row>
-    <row r="212" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -8675,7 +8674,7 @@
       <c r="AK212" s="2"/>
       <c r="AL212" s="2"/>
     </row>
-    <row r="213" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -8715,7 +8714,7 @@
       <c r="AK213" s="2"/>
       <c r="AL213" s="2"/>
     </row>
-    <row r="214" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -8755,7 +8754,7 @@
       <c r="AK214" s="2"/>
       <c r="AL214" s="2"/>
     </row>
-    <row r="215" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -8795,7 +8794,7 @@
       <c r="AK215" s="2"/>
       <c r="AL215" s="2"/>
     </row>
-    <row r="216" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -8835,7 +8834,7 @@
       <c r="AK216" s="2"/>
       <c r="AL216" s="2"/>
     </row>
-    <row r="217" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -8875,7 +8874,7 @@
       <c r="AK217" s="2"/>
       <c r="AL217" s="2"/>
     </row>
-    <row r="218" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -8915,7 +8914,7 @@
       <c r="AK218" s="2"/>
       <c r="AL218" s="2"/>
     </row>
-    <row r="219" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -8955,7 +8954,7 @@
       <c r="AK219" s="2"/>
       <c r="AL219" s="2"/>
     </row>
-    <row r="220" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -8995,7 +8994,7 @@
       <c r="AK220" s="2"/>
       <c r="AL220" s="2"/>
     </row>
-    <row r="221" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -9035,7 +9034,7 @@
       <c r="AK221" s="2"/>
       <c r="AL221" s="2"/>
     </row>
-    <row r="222" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -9075,7 +9074,7 @@
       <c r="AK222" s="2"/>
       <c r="AL222" s="2"/>
     </row>
-    <row r="223" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -9115,7 +9114,7 @@
       <c r="AK223" s="2"/>
       <c r="AL223" s="2"/>
     </row>
-    <row r="224" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -9155,7 +9154,7 @@
       <c r="AK224" s="2"/>
       <c r="AL224" s="2"/>
     </row>
-    <row r="225" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -9195,7 +9194,7 @@
       <c r="AK225" s="2"/>
       <c r="AL225" s="2"/>
     </row>
-    <row r="226" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -9235,7 +9234,7 @@
       <c r="AK226" s="2"/>
       <c r="AL226" s="2"/>
     </row>
-    <row r="227" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -9275,7 +9274,7 @@
       <c r="AK227" s="2"/>
       <c r="AL227" s="2"/>
     </row>
-    <row r="228" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -9315,7 +9314,7 @@
       <c r="AK228" s="2"/>
       <c r="AL228" s="2"/>
     </row>
-    <row r="229" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -9355,7 +9354,7 @@
       <c r="AK229" s="2"/>
       <c r="AL229" s="2"/>
     </row>
-    <row r="230" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -9395,7 +9394,7 @@
       <c r="AK230" s="2"/>
       <c r="AL230" s="2"/>
     </row>
-    <row r="231" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -9435,7 +9434,7 @@
       <c r="AK231" s="2"/>
       <c r="AL231" s="2"/>
     </row>
-    <row r="232" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -9477,6 +9476,31 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B26:C26"/>
@@ -9484,31 +9508,6 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
